--- a/public/templates/expenses-template.xlsx
+++ b/public/templates/expenses-template.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,15 +410,18 @@
         <v>סכום</v>
       </c>
       <c r="C1" t="str">
+        <v>סוג מסמך</v>
+      </c>
+      <c r="D1" t="str">
         <v>תיאור</v>
       </c>
-      <c r="D1" t="str">
-        <v>מספר חשבונית</v>
-      </c>
       <c r="E1" t="str">
+        <v>מספר מסמך</v>
+      </c>
+      <c r="F1" t="str">
         <v>פטור ממעמ</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>סטטוס</v>
       </c>
     </row>
@@ -430,15 +433,18 @@
         <v>1180</v>
       </c>
       <c r="C2" t="str">
+        <v>tax_invoice</v>
+      </c>
+      <c r="D2" t="str">
         <v>חשבון חשמל</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <v>445566</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <v>false</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <v>paid</v>
       </c>
     </row>
@@ -450,16 +456,19 @@
         <v>5900</v>
       </c>
       <c r="C3" t="str">
+        <v>tax_invoice_receipt</v>
+      </c>
+      <c r="D3" t="str">
         <v>שכירות משרד</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <v>12345</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <v>false</v>
       </c>
-      <c r="F3" t="str">
-        <v>pending</v>
+      <c r="G3" t="str">
+        <v>paid</v>
       </c>
     </row>
     <row r="4">
@@ -470,15 +479,18 @@
         <v>590</v>
       </c>
       <c r="C4" t="str">
+        <v>tax_invoice</v>
+      </c>
+      <c r="D4" t="str">
         <v>ציוד משרדי</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <v>78910</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <v>false</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <v>paid</v>
       </c>
     </row>
@@ -490,21 +502,24 @@
         <v>350</v>
       </c>
       <c r="C5" t="str">
+        <v>receipt</v>
+      </c>
+      <c r="D5" t="str">
         <v>עמלות בנק</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <v/>
       </c>
-      <c r="E5" t="str">
+      <c r="F5" t="str">
         <v>true</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <v>paid</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>